--- a/MBTI.xlsx
+++ b/MBTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_MBTI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BB581F4-2387-4272-B4F2-748E9AB51737}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6422A43-A4DD-481D-AE02-17AB5E04A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17388" yWindow="-2580" windowWidth="17496" windowHeight="30336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
   <si>
     <t>ISTJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,86 +46,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>올리비아 혜</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유빈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>은하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주은</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>한혜진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>홍진경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김이브</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지여닝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유혜주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강소휘</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>강승식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>규진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김동현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김시훈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김요한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>나르샤</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나플라</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>다현</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>대성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>도영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>루다</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -166,30 +94,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>아이엔</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>안영미</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>앨런</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>야부키 나코</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>영재</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유나</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -202,30 +114,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이강성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이민혁</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이서연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이석원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이우진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>이진우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>장도연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -234,10 +126,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>재민</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -246,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정한</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정화</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -262,10 +146,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>진영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>치흔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -671,6 +551,106 @@
   </si>
   <si>
     <t>금조o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>올리비아 혜o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유빈o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은하o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>주은o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>한혜진o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유혜주o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강소휘o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>강승식o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>규진o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김동현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김시훈o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김요한o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대성o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>도영o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>셔누o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이엔o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>앨런o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영재o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이강성o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이민혁o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이우진o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이진우o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>재민o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정한o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>진영o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -996,11 +976,14 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -1018,626 +1001,614 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>140</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>70</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>17</v>
+        <v>141</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>71</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>18</v>
+        <v>142</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>143</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>74</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>144</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>73</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>22</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>76</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>133</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>77</v>
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="B10" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="D10" s="1" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>24</v>
+        <v>145</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>79</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>25</v>
+        <v>146</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>80</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>81</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>136</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>147</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>137</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>11</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>36</v>
+        <v>148</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
-      <c r="B24" s="1" t="s">
-        <v>12</v>
-      </c>
+      <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>156</v>
+        <v>126</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>38</v>
+        <v>149</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
-      <c r="C28" s="1" t="s">
-        <v>41</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>157</v>
+        <v>127</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>13</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>45</v>
+        <v>151</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>14</v>
+        <v>138</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>46</v>
+        <v>152</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
-      <c r="C35" s="1" t="s">
-        <v>48</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>159</v>
+        <v>129</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>49</v>
+        <v>153</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>50</v>
+        <v>154</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>129</v>
+        <v>99</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>53</v>
+        <v>155</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>56</v>
+        <v>156</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>57</v>
+        <v>28</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>60</v>
+        <v>157</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>66</v>
+        <v>36</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
   </sheetData>

--- a/MBTI.xlsx
+++ b/MBTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_MBTI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6422A43-A4DD-481D-AE02-17AB5E04A423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B7CF98-2F64-4A8C-8616-6514458502B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17388" yWindow="-2580" windowWidth="17496" windowHeight="30336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
   <si>
     <t>ISTJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,98 +46,18 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나르샤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>다현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>루다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>류수정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백지헌</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>비니</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>셔누</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>소희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수윤</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신비</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>안영미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야부키 나코</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>유채</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>윤경</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이서연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>장도연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장민호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>정연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정채연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>정화</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>지수연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -651,6 +571,82 @@
   </si>
   <si>
     <t>진영o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나르샤o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>다현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>루다o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>류수정o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백지헌o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>비니o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소희o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>수윤o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신비o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>신지o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안영미o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>야부키 나코o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유나o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>유채o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤경o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장도연o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장민호 o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정연o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>정화o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -976,8 +972,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="C47" sqref="C47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1001,329 +997,327 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>131</v>
+        <v>111</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>112</v>
+        <v>92</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>105</v>
+        <v>85</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>106</v>
+        <v>86</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>113</v>
+        <v>93</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>133</v>
+        <v>113</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>135</v>
+        <v>115</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>50</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>109</v>
+        <v>89</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>8</v>
+        <v>140</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>9</v>
+        <v>141</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>52</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>53</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>121</v>
+        <v>101</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>11</v>
+        <v>142</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>12</v>
+        <v>143</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>55</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>115</v>
+        <v>95</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>103</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>14</v>
+        <v>144</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>57</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>111</v>
+        <v>91</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>15</v>
+        <v>145</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>58</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>116</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>104</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>17</v>
+        <v>147</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>18</v>
+        <v>148</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>63</v>
+        <v>43</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>149</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>64</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1331,284 +1325,284 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>66</v>
+        <v>46</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>20</v>
+        <v>150</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>151</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>152</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>68</v>
+        <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>69</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>70</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>71</v>
+        <v>51</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1" t="s">
-        <v>72</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>24</v>
+        <v>153</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>76</v>
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>26</v>
+        <v>155</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D60" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
   </sheetData>

--- a/MBTI.xlsx
+++ b/MBTI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_MBTI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34B7CF98-2F64-4A8C-8616-6514458502B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A6C1AF-72ED-4137-92C0-865067942C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-17388" yWindow="-2580" windowWidth="17496" windowHeight="30336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
   <si>
     <t>ISTJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -46,10 +46,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>셔누</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이서연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -102,182 +98,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>고결</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>권정열</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>고우림</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김기범</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김다미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김선호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김성식</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김연지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김영철</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김진환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김채원</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김혜성</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>김현수</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>나나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>노태현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>리에</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마린</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>미나</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>지효</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쯔위</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>민희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박시환</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박정우</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>하루토</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>백현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>버논</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>설현</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이엠</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>소정</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>쇼타로</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>제노</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>태일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>수빈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>슬기</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>웬디</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>시호</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>신</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아론</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>양세찬</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>영빈</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오승희</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오재일</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>오헬리엉 루베르</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>온유</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>유승호</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -290,30 +110,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>윤보미</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이도</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이미주</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이정후</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>이채영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>장규리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이협</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -330,10 +134,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>인교진</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>27명</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -647,6 +447,170 @@
   </si>
   <si>
     <t>정화o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고결o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>고우림o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김기범o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김선호o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김성식o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김진환o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김혜성o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>노태현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>리에o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박시환o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박정우o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>하루토o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>백현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이엠o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쇼타로o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>제노o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태일o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아론o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양세찬o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>영빈o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오재일o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>온유o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김다미o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연지o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김채원o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김현수o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나나o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>미나o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>지효o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>쯔위o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>웬디o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>슬기o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>설현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>민희o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소정o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시호o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>오승희o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>윤보미o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미주o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장규리o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이채영o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -973,7 +937,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="G49" sqref="G49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -997,612 +961,594 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>120</v>
+        <v>70</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>20</v>
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>83</v>
+        <v>33</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>112</v>
+        <v>62</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>21</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>84</v>
+        <v>34</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>22</v>
+        <v>108</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>92</v>
+        <v>42</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>123</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>24</v>
+        <v>129</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>124</v>
+        <v>74</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>23</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
-        <v>138</v>
+        <v>88</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>25</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>93</v>
+        <v>43</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>98</v>
+        <v>48</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>26</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>113</v>
+        <v>63</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>139</v>
+        <v>89</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>27</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>28</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1" t="s">
-        <v>125</v>
+        <v>75</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="1" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>126</v>
+        <v>76</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>30</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>89</v>
+        <v>39</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>140</v>
+        <v>90</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>31</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1" t="s">
-        <v>141</v>
+        <v>91</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="1" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>33</v>
+        <v>133</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>94</v>
+        <v>44</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>101</v>
+        <v>51</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>142</v>
+        <v>92</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>34</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>116</v>
+        <v>66</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>35</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>36</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>103</v>
+        <v>53</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>144</v>
+        <v>94</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>37</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>91</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>117</v>
+        <v>67</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>145</v>
+        <v>95</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>38</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1" t="s">
-        <v>146</v>
+        <v>96</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>39</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="1" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>147</v>
+        <v>97</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
-        <v>105</v>
+        <v>55</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>128</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>41</v>
+        <v>116</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1" t="s">
-        <v>148</v>
+        <v>98</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>97</v>
+        <v>47</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>106</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>79</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>43</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
-        <v>149</v>
+        <v>99</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>44</v>
+        <v>119</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="D27" s="1" t="s">
-        <v>45</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="D27" s="1"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>46</v>
+        <v>139</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>107</v>
+        <v>57</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>78</v>
+        <v>28</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>151</v>
+        <v>101</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>47</v>
+        <v>120</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>108</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>131</v>
+        <v>81</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>49</v>
+        <v>121</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>118</v>
+        <v>68</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>132</v>
+        <v>82</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>50</v>
+        <v>122</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>51</v>
+        <v>123</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
-      <c r="D35" s="1" t="s">
-        <v>52</v>
-      </c>
+      <c r="D35" s="1"/>
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>53</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>54</v>
+        <v>137</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>153</v>
+        <v>103</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>55</v>
+        <v>142</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>79</v>
+        <v>29</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>56</v>
-      </c>
+        <v>104</v>
+      </c>
+      <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>135</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>155</v>
+        <v>105</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>143</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>61</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>62</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>137</v>
+        <v>87</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>65</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>66</v>
+        <v>21</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>67</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>68</v>
+        <v>22</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>69</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>70</v>
+        <v>23</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>71</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>72</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>73</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
-        <v>76</v>
+        <v>27</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
-      <c r="D60" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="D60" s="1"/>
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1" t="s">
-        <v>81</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/MBTI.xlsx
+++ b/MBTI.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\04_MBTI_Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A6C1AF-72ED-4137-92C0-865067942C51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7255CB-DCC6-4620-A9E7-854D6169C351}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-17388" yWindow="-2580" windowWidth="17496" windowHeight="30336" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7290" yWindow="2445" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="163">
   <si>
     <t>ISTJ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -38,14 +38,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>나연</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>박규영</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>이서연</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -611,6 +603,74 @@
   </si>
   <si>
     <t>이채영o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이창섭O</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>시우민o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이린o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>서현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전지현</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>혜린o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나연o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박규영o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>크리스탈o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>던o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김연아o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>경o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>차태현o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>은지원o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>보아o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임나영o</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>최의정o</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -936,8 +996,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G49" sqref="G49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -961,318 +1021,350 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D3" s="1"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="1"/>
+        <v>32</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>151</v>
+      </c>
       <c r="C4" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>152</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>5</v>
+        <v>153</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="1"/>
+        <v>34</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C7" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>150</v>
+      </c>
       <c r="C11" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="B12" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>155</v>
+      </c>
       <c r="C14" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>148</v>
+      </c>
       <c r="B15" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1" t="s">
+        <v>149</v>
+      </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B21" s="1"/>
+        <v>44</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>159</v>
+      </c>
       <c r="C21" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="D22" s="1" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="D24" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
+      <c r="A26" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C26" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -1281,70 +1373,70 @@
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.3">
@@ -1354,193 +1446,193 @@
     </row>
     <row r="36" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D39" s="1"/>
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D45" s="1"/>
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="47" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="49" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="50" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="54" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="55" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="56" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D57" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="58" spans="3:4" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D59" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="3:4" x14ac:dyDescent="0.3">
@@ -1548,7 +1640,7 @@
     </row>
     <row r="62" spans="3:4" x14ac:dyDescent="0.3">
       <c r="D62" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
